--- a/RegistroVisitantes/RegistroVisitantes/Reporte.xlsx
+++ b/RegistroVisitantes/RegistroVisitantes/Reporte.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Compañía</t>
   </si>
@@ -66,25 +66,286 @@
   </si>
   <si>
     <t>jeffvene@gmail.com</t>
+  </si>
+  <si>
+    <t>ESINTRO</t>
+  </si>
+  <si>
+    <t>CRO150</t>
+  </si>
+  <si>
+    <t>David Solano</t>
+  </si>
+  <si>
+    <t>david@gmail.com</t>
+  </si>
+  <si>
+    <t>CRO156</t>
+  </si>
+  <si>
+    <t>CRO169</t>
+  </si>
+  <si>
+    <t>SWEDISH</t>
+  </si>
+  <si>
+    <t>Zlatan Ibrahimovic</t>
+  </si>
+  <si>
+    <t>GERMANS</t>
+  </si>
+  <si>
+    <t>Jerome Boateng</t>
+  </si>
+  <si>
+    <t>Rebeca Fallas</t>
+  </si>
+  <si>
+    <t>ange@gmail.com</t>
+  </si>
+  <si>
+    <t>Michael Ballack</t>
+  </si>
+  <si>
+    <t>Gerard Pique</t>
+  </si>
+  <si>
+    <t>pique@barcelona.com</t>
+  </si>
+  <si>
+    <t>Stephen Curry Curry</t>
+  </si>
+  <si>
+    <t>BRITISH</t>
+  </si>
+  <si>
+    <t>Daniel Munoz</t>
+  </si>
+  <si>
+    <t>daniel@gmail.com</t>
+  </si>
+  <si>
+    <t>CRO176</t>
+  </si>
+  <si>
+    <t>Roberto Carlos</t>
+  </si>
+  <si>
+    <t>rc23@gmail.com</t>
+  </si>
+  <si>
+    <t>Las Cruces</t>
+  </si>
+  <si>
+    <t>CRO195</t>
+  </si>
+  <si>
+    <t>Gabriela Salazar</t>
+  </si>
+  <si>
+    <t>Angelica Fallas</t>
+  </si>
+  <si>
+    <t>Investigador</t>
+  </si>
+  <si>
+    <t>ECUADORIANS</t>
+  </si>
+  <si>
+    <t>Patricio Salazar</t>
+  </si>
+  <si>
+    <t>patoafan@gmail.com</t>
+  </si>
+  <si>
+    <t>UKRAINIAN</t>
+  </si>
+  <si>
+    <t>Nataliya Mudrik</t>
+  </si>
+  <si>
+    <t>nataliyamudrik@csus.edu</t>
+  </si>
+  <si>
+    <t>ITALIANS</t>
+  </si>
+  <si>
+    <t>Andrea Pirlo</t>
+  </si>
+  <si>
+    <t>ARGENTINIAN</t>
+  </si>
+  <si>
+    <t>Sergio Aguero</t>
+  </si>
+  <si>
+    <t>Phillip Lahm</t>
+  </si>
+  <si>
+    <t>GABONESE</t>
+  </si>
+  <si>
+    <t>Pierre Aumebayang</t>
+  </si>
+  <si>
+    <t>Braulio Solano</t>
+  </si>
+  <si>
+    <t>FRENCH POLYNESIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kratos </t>
+  </si>
+  <si>
+    <t>Lionel Messi</t>
+  </si>
+  <si>
+    <t>CRO289</t>
+  </si>
+  <si>
+    <t>Palo Verde</t>
+  </si>
+  <si>
+    <t>CRO3658</t>
+  </si>
+  <si>
+    <t>UNITED STATES</t>
+  </si>
+  <si>
+    <t>Joanna Larson</t>
+  </si>
+  <si>
+    <t>jglarson@umich.edu</t>
+  </si>
+  <si>
+    <t>Glen Collier</t>
+  </si>
+  <si>
+    <t>glen-collier@utulsa.edu</t>
+  </si>
+  <si>
+    <t>CRO3908</t>
+  </si>
+  <si>
+    <t>CRO3059</t>
+  </si>
+  <si>
+    <t>CRO3064</t>
+  </si>
+  <si>
+    <t>v v</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>CRO483</t>
+  </si>
+  <si>
+    <t>Angelica Falla</t>
+  </si>
+  <si>
+    <t>CRO28975</t>
+  </si>
+  <si>
+    <t>CRO31698</t>
+  </si>
+  <si>
+    <t>Gabriel Bermudez</t>
+  </si>
+  <si>
+    <t>gabo@gmail.com</t>
+  </si>
+  <si>
+    <t>CRO33818</t>
+  </si>
+  <si>
+    <t>Enrique Castrox</t>
+  </si>
+  <si>
+    <t>enrique.castro@ots.cr</t>
+  </si>
+  <si>
+    <t>CRO33819</t>
+  </si>
+  <si>
+    <t>CRO33280</t>
+  </si>
+  <si>
+    <t>CHILEAN</t>
+  </si>
+  <si>
+    <t>Alexis Sanchez</t>
+  </si>
+  <si>
+    <t>CRO33553</t>
+  </si>
+  <si>
+    <t>Armando Cortes Brenes</t>
+  </si>
+  <si>
+    <t>armando.cortes@hotmail.com</t>
+  </si>
+  <si>
+    <t>CRO32583</t>
+  </si>
+  <si>
+    <t>Roberto Rodriguez</t>
+  </si>
+  <si>
+    <t>Angel Di Maria</t>
+  </si>
+  <si>
+    <t>Tomas Muller</t>
+  </si>
+  <si>
+    <t>tomas@gmail.com</t>
+  </si>
+  <si>
+    <t>CRO33381</t>
+  </si>
+  <si>
+    <t>CRO32780</t>
+  </si>
+  <si>
+    <t>CRO33525</t>
+  </si>
+  <si>
+    <t>k k</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADD8E6" tint="0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,8 +360,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="0"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -111,38 +375,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.48604801722935" customWidth="1"/>
+    <col min="2" max="2" width="9.96484266008649" customWidth="1"/>
+    <col min="3" max="3" width="11.2518583025251" customWidth="1"/>
+    <col min="4" max="4" width="14.712888445173" customWidth="1" style="1"/>
+    <col min="5" max="5" width="14.712888445173" customWidth="1" style="1"/>
+    <col min="6" max="6" width="12.513298034668" customWidth="1"/>
+    <col min="7" max="7" width="18.889041355678" customWidth="1"/>
+    <col min="8" max="8" width="20.9801853724888" customWidth="1"/>
+    <col min="9" max="9" width="26.8597433907645" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -156,10 +431,10 @@
       <c r="C2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2" s="1">
         <v>38431</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2" s="1">
         <v>38434</v>
       </c>
       <c r="G2" s="0" t="s">
@@ -182,10 +457,10 @@
       <c r="C3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3" s="1">
         <v>38431</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3" s="1">
         <v>38434</v>
       </c>
       <c r="G3" s="0" t="s">
@@ -196,6 +471,1332 @@
       </c>
       <c r="I3" s="0" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1">
+        <v>38447</v>
+      </c>
+      <c r="E4" s="1">
+        <v>38450</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1">
+        <v>38510</v>
+      </c>
+      <c r="E5" s="1">
+        <v>38575</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1">
+        <v>38568</v>
+      </c>
+      <c r="E6" s="1">
+        <v>38569</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1">
+        <v>38568</v>
+      </c>
+      <c r="E7" s="1">
+        <v>38569</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1">
+        <v>38568</v>
+      </c>
+      <c r="E8" s="1">
+        <v>38569</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1">
+        <v>38568</v>
+      </c>
+      <c r="E9" s="1">
+        <v>38569</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1">
+        <v>38568</v>
+      </c>
+      <c r="E10" s="1">
+        <v>38569</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1">
+        <v>38568</v>
+      </c>
+      <c r="E11" s="1">
+        <v>38569</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1">
+        <v>38568</v>
+      </c>
+      <c r="E12" s="1">
+        <v>38569</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1">
+        <v>38568</v>
+      </c>
+      <c r="E13" s="1">
+        <v>38569</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1">
+        <v>38716</v>
+      </c>
+      <c r="E14" s="1">
+        <v>38717</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1">
+        <v>38298</v>
+      </c>
+      <c r="E15" s="1">
+        <v>38300</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="1">
+        <v>38298</v>
+      </c>
+      <c r="E16" s="1">
+        <v>38300</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="1">
+        <v>38298</v>
+      </c>
+      <c r="E17" s="1">
+        <v>38300</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="1">
+        <v>38298</v>
+      </c>
+      <c r="E18" s="1">
+        <v>38300</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="1">
+        <v>38298</v>
+      </c>
+      <c r="E19" s="1">
+        <v>38300</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="1">
+        <v>38298</v>
+      </c>
+      <c r="E20" s="1">
+        <v>38300</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="1">
+        <v>38298</v>
+      </c>
+      <c r="E21" s="1">
+        <v>38300</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="1">
+        <v>38298</v>
+      </c>
+      <c r="E22" s="1">
+        <v>38300</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="1">
+        <v>38298</v>
+      </c>
+      <c r="E23" s="1">
+        <v>38300</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="1">
+        <v>38298</v>
+      </c>
+      <c r="E24" s="1">
+        <v>38300</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="1">
+        <v>38298</v>
+      </c>
+      <c r="E25" s="1">
+        <v>38300</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="1">
+        <v>38298</v>
+      </c>
+      <c r="E26" s="1">
+        <v>38300</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="1">
+        <v>38298</v>
+      </c>
+      <c r="E27" s="1">
+        <v>38300</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="1">
+        <v>38298</v>
+      </c>
+      <c r="E28" s="1">
+        <v>38300</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="1">
+        <v>38553</v>
+      </c>
+      <c r="E29" s="1">
+        <v>38555</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="1">
+        <v>38692</v>
+      </c>
+      <c r="E30" s="1">
+        <v>38695</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="1">
+        <v>38692</v>
+      </c>
+      <c r="E31" s="1">
+        <v>38695</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="1">
+        <v>38692</v>
+      </c>
+      <c r="E32" s="1">
+        <v>38695</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="1">
+        <v>38692</v>
+      </c>
+      <c r="E33" s="1">
+        <v>38695</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="1">
+        <v>38692</v>
+      </c>
+      <c r="E34" s="1">
+        <v>38695</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="1">
+        <v>38692</v>
+      </c>
+      <c r="E35" s="1">
+        <v>38695</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="1">
+        <v>38709</v>
+      </c>
+      <c r="E36" s="1">
+        <v>38712</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="1">
+        <v>38556</v>
+      </c>
+      <c r="E37" s="1">
+        <v>38556</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="1">
+        <v>38685</v>
+      </c>
+      <c r="E38" s="1">
+        <v>38686</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="1">
+        <v>38314</v>
+      </c>
+      <c r="E39" s="1">
+        <v>38314</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="1">
+        <v>42516</v>
+      </c>
+      <c r="E40" s="1">
+        <v>42527</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="1">
+        <v>42514</v>
+      </c>
+      <c r="E41" s="1">
+        <v>42515</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="1">
+        <v>42514</v>
+      </c>
+      <c r="E42" s="1">
+        <v>42515</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="1">
+        <v>42514</v>
+      </c>
+      <c r="E43" s="1">
+        <v>42515</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="1">
+        <v>42517</v>
+      </c>
+      <c r="E44" s="1">
+        <v>42566</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="1">
+        <v>42517</v>
+      </c>
+      <c r="E45" s="1">
+        <v>42566</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="1">
+        <v>42517</v>
+      </c>
+      <c r="E46" s="1">
+        <v>42566</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="1">
+        <v>42546</v>
+      </c>
+      <c r="E47" s="1">
+        <v>42555</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="1">
+        <v>42537</v>
+      </c>
+      <c r="E48" s="1">
+        <v>42540</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="1">
+        <v>42507</v>
+      </c>
+      <c r="E49" s="1">
+        <v>42508</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="1">
+        <v>42507</v>
+      </c>
+      <c r="E50" s="1">
+        <v>42508</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="1">
+        <v>42507</v>
+      </c>
+      <c r="E51" s="1">
+        <v>42508</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="1">
+        <v>42507</v>
+      </c>
+      <c r="E52" s="1">
+        <v>42508</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="1">
+        <v>42507</v>
+      </c>
+      <c r="E53" s="1">
+        <v>42508</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="1">
+        <v>42550</v>
+      </c>
+      <c r="E54" s="1">
+        <v>42557</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="1">
+        <v>42550</v>
+      </c>
+      <c r="E55" s="1">
+        <v>42557</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" s="1">
+        <v>42531</v>
+      </c>
+      <c r="E56" s="1">
+        <v>42532</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="1">
+        <v>42532</v>
+      </c>
+      <c r="E57" s="1">
+        <v>42536</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/RegistroVisitantes/RegistroVisitantes/Reporte.xlsx
+++ b/RegistroVisitantes/RegistroVisitantes/Reporte.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Compañía</t>
   </si>
@@ -50,6 +50,15 @@
     <t>CRO141</t>
   </si>
   <si>
+    <t>COSTA RICAN</t>
+  </si>
+  <si>
+    <t>Jeffry Venegas</t>
+  </si>
+  <si>
+    <t>jeffvene@gmail.com</t>
+  </si>
+  <si>
     <t>BELGIAN</t>
   </si>
   <si>
@@ -59,13 +68,118 @@
     <t>ddierick@fiu.edu</t>
   </si>
   <si>
-    <t>COSTA RICAN</t>
-  </si>
-  <si>
-    <t>Jeffry Venegas</t>
-  </si>
-  <si>
-    <t>jeffvene@gmail.com</t>
+    <t>ESINTRO</t>
+  </si>
+  <si>
+    <t>CRO150</t>
+  </si>
+  <si>
+    <t>David Solano</t>
+  </si>
+  <si>
+    <t>david@gmail.com</t>
+  </si>
+  <si>
+    <t>CRO156</t>
+  </si>
+  <si>
+    <t>CRO169</t>
+  </si>
+  <si>
+    <t>Stephen Curry Curry</t>
+  </si>
+  <si>
+    <t>BRITISH</t>
+  </si>
+  <si>
+    <t>Daniel Munoz</t>
+  </si>
+  <si>
+    <t>daniel@gmail.com</t>
+  </si>
+  <si>
+    <t>SWEDISH</t>
+  </si>
+  <si>
+    <t>Zlatan Ibrahimovic</t>
+  </si>
+  <si>
+    <t>Gerard Pique</t>
+  </si>
+  <si>
+    <t>pique@barcelona.com</t>
+  </si>
+  <si>
+    <t>GERMANS</t>
+  </si>
+  <si>
+    <t>Jerome Boateng</t>
+  </si>
+  <si>
+    <t>Rebeca Fallas</t>
+  </si>
+  <si>
+    <t>ange@gmail.com</t>
+  </si>
+  <si>
+    <t>Michael Ballack</t>
+  </si>
+  <si>
+    <t>CRO176</t>
+  </si>
+  <si>
+    <t>Roberto Carlos</t>
+  </si>
+  <si>
+    <t>rc23@gmail.com</t>
+  </si>
+  <si>
+    <t>Las Cruces</t>
+  </si>
+  <si>
+    <t>CRO289</t>
+  </si>
+  <si>
+    <t>Palo Verde</t>
+  </si>
+  <si>
+    <t>CRO3658</t>
+  </si>
+  <si>
+    <t>Investigador</t>
+  </si>
+  <si>
+    <t>UNITED STATES</t>
+  </si>
+  <si>
+    <t>Joanna Larson</t>
+  </si>
+  <si>
+    <t>jglarson@umich.edu</t>
+  </si>
+  <si>
+    <t>Angelica Fallas</t>
+  </si>
+  <si>
+    <t>Glen Collier</t>
+  </si>
+  <si>
+    <t>glen-collier@utulsa.edu</t>
+  </si>
+  <si>
+    <t>CRO3908</t>
+  </si>
+  <si>
+    <t>CRO3059</t>
+  </si>
+  <si>
+    <t>CRO3064</t>
+  </si>
+  <si>
+    <t>v v</t>
+  </si>
+  <si>
+    <t>v</t>
   </si>
 </sst>
 </file>
@@ -126,21 +240,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.48604801722935" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.96484266008649" customWidth="1"/>
     <col min="3" max="3" width="11.2518583025251" customWidth="1"/>
     <col min="4" max="4" width="14.712888445173" customWidth="1" style="1"/>
     <col min="5" max="5" width="14.712888445173" customWidth="1" style="1"/>
     <col min="6" max="6" width="12.513298034668" customWidth="1"/>
-    <col min="7" max="7" width="12.2360469273158" customWidth="1"/>
-    <col min="8" max="8" width="16.5769141060965" customWidth="1"/>
-    <col min="9" max="9" width="18.3611395699637" customWidth="1"/>
+    <col min="7" max="7" width="13.9486585344587" customWidth="1"/>
+    <col min="8" max="8" width="17.9682824271066" customWidth="1"/>
+    <col min="9" max="9" width="21.0262233189174" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -224,6 +338,522 @@
         <v>17</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1">
+        <v>38447</v>
+      </c>
+      <c r="E4" s="1">
+        <v>38450</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1">
+        <v>38510</v>
+      </c>
+      <c r="E5" s="1">
+        <v>38575</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1">
+        <v>38568</v>
+      </c>
+      <c r="E6" s="1">
+        <v>38569</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1">
+        <v>38568</v>
+      </c>
+      <c r="E7" s="1">
+        <v>38569</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1">
+        <v>38568</v>
+      </c>
+      <c r="E8" s="1">
+        <v>38569</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1">
+        <v>38568</v>
+      </c>
+      <c r="E9" s="1">
+        <v>38569</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1">
+        <v>38568</v>
+      </c>
+      <c r="E10" s="1">
+        <v>38569</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1">
+        <v>38568</v>
+      </c>
+      <c r="E11" s="1">
+        <v>38569</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1">
+        <v>38568</v>
+      </c>
+      <c r="E12" s="1">
+        <v>38569</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1">
+        <v>38568</v>
+      </c>
+      <c r="E13" s="1">
+        <v>38569</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1">
+        <v>38716</v>
+      </c>
+      <c r="E14" s="1">
+        <v>38717</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1">
+        <v>38553</v>
+      </c>
+      <c r="E15" s="1">
+        <v>38555</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1">
+        <v>38692</v>
+      </c>
+      <c r="E16" s="1">
+        <v>38695</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1">
+        <v>38692</v>
+      </c>
+      <c r="E17" s="1">
+        <v>38695</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="1">
+        <v>38692</v>
+      </c>
+      <c r="E18" s="1">
+        <v>38695</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="1">
+        <v>38692</v>
+      </c>
+      <c r="E19" s="1">
+        <v>38695</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="1">
+        <v>38692</v>
+      </c>
+      <c r="E20" s="1">
+        <v>38695</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="1">
+        <v>38692</v>
+      </c>
+      <c r="E21" s="1">
+        <v>38695</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="1">
+        <v>38709</v>
+      </c>
+      <c r="E22" s="1">
+        <v>38712</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="1">
+        <v>38556</v>
+      </c>
+      <c r="E23" s="1">
+        <v>38556</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="1">
+        <v>38685</v>
+      </c>
+      <c r="E24" s="1">
+        <v>38686</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/RegistroVisitantes/RegistroVisitantes/Reporte.xlsx
+++ b/RegistroVisitantes/RegistroVisitantes/Reporte.xlsx
@@ -12,7 +12,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+  <si>
+    <t>Estación</t>
+  </si>
+  <si>
+    <t>Reservación</t>
+  </si>
+  <si>
+    <t>Fecha entrada</t>
+  </si>
+  <si>
+    <t>Fecha salida</t>
+  </si>
+  <si>
+    <t>Tipo visitante</t>
+  </si>
+  <si>
+    <t>Nacionalidad</t>
+  </si>
   <si>
     <t>Nombre completo</t>
   </si>
@@ -20,33 +38,60 @@
     <t>Correo electrónico</t>
   </si>
   <si>
+    <t>La Selva</t>
+  </si>
+  <si>
+    <t>CRO141</t>
+  </si>
+  <si>
+    <t>COSTA RICAN</t>
+  </si>
+  <si>
     <t>Jeffry Venegas</t>
   </si>
   <si>
     <t>jeffvene@gmail.com</t>
   </si>
   <si>
+    <t>BELGIAN</t>
+  </si>
+  <si>
     <t>Diego Dierick</t>
   </si>
   <si>
     <t>ddierick@fiu.edu</t>
   </si>
   <si>
+    <t>CRO150</t>
+  </si>
+  <si>
     <t>David Solano</t>
   </si>
   <si>
     <t>david@gmail.com</t>
   </si>
   <si>
+    <t>CRO156</t>
+  </si>
+  <si>
+    <t>CRO169</t>
+  </si>
+  <si>
     <t>Stephen Curry Curry</t>
   </si>
   <si>
+    <t>BRITISH</t>
+  </si>
+  <si>
     <t>Daniel Munoz</t>
   </si>
   <si>
     <t>daniel@gmail.com</t>
   </si>
   <si>
+    <t>SWEDISH</t>
+  </si>
+  <si>
     <t>Zlatan Ibrahimovic</t>
   </si>
   <si>
@@ -56,6 +101,9 @@
     <t>pique@barcelona.com</t>
   </si>
   <si>
+    <t>GERMANS</t>
+  </si>
+  <si>
     <t>Jerome Boateng</t>
   </si>
   <si>
@@ -68,12 +116,33 @@
     <t>Michael Ballack</t>
   </si>
   <si>
+    <t>CRO176</t>
+  </si>
+  <si>
     <t>Roberto Carlos</t>
   </si>
   <si>
     <t>rc23@gmail.com</t>
   </si>
   <si>
+    <t>Las Cruces</t>
+  </si>
+  <si>
+    <t>CRO289</t>
+  </si>
+  <si>
+    <t>Palo Verde</t>
+  </si>
+  <si>
+    <t>CRO3658</t>
+  </si>
+  <si>
+    <t>Investigador</t>
+  </si>
+  <si>
+    <t>UNITED STATES</t>
+  </si>
+  <si>
     <t>Joanna Larson</t>
   </si>
   <si>
@@ -87,6 +156,15 @@
   </si>
   <si>
     <t>glen-collier@utulsa.edu</t>
+  </si>
+  <si>
+    <t>CRO3908</t>
+  </si>
+  <si>
+    <t>CRO3059</t>
+  </si>
+  <si>
+    <t>CRO3064</t>
   </si>
   <si>
     <t>v v</t>
@@ -159,14 +237,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.9682824271066" customWidth="1"/>
-    <col min="2" max="2" width="21.0262233189174" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1" style="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.96484266008649" customWidth="1"/>
+    <col min="2" max="2" width="11.2518583025251" customWidth="1"/>
+    <col min="3" max="3" width="13.0831451416016" customWidth="1"/>
+    <col min="4" max="4" width="14.712888445173" customWidth="1" style="1"/>
+    <col min="5" max="5" width="12.513298034668" customWidth="1" style="1"/>
+    <col min="6" max="6" width="13.9486585344587" customWidth="1"/>
+    <col min="7" max="7" width="17.9682824271066" customWidth="1"/>
+    <col min="8" max="8" width="21.0262233189174" customWidth="1"/>
     <col min="9" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -177,178 +255,523 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="C2" s="0">
+        <v>38431</v>
+      </c>
+      <c r="D2" s="1">
+        <v>38434</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="0">
+        <v>38431</v>
+      </c>
+      <c r="D3" s="1">
+        <v>38434</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="0">
+        <v>38447</v>
+      </c>
+      <c r="D4" s="1">
+        <v>38450</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="C5" s="0">
+        <v>38510</v>
+      </c>
+      <c r="D5" s="1">
+        <v>38575</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="C6" s="0">
+        <v>38568</v>
+      </c>
+      <c r="D6" s="1">
+        <v>38569</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0">
+        <v>38568</v>
+      </c>
+      <c r="D7" s="1">
+        <v>38569</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="C8" s="0">
+        <v>38568</v>
+      </c>
+      <c r="D8" s="1">
+        <v>38569</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="0">
+        <v>38568</v>
+      </c>
+      <c r="D9" s="1">
+        <v>38569</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="C10" s="0">
+        <v>38568</v>
+      </c>
+      <c r="D10" s="1">
+        <v>38569</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="0">
+        <v>38568</v>
+      </c>
+      <c r="D11" s="1">
+        <v>38569</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="C12" s="0">
+        <v>38568</v>
+      </c>
+      <c r="D12" s="1">
+        <v>38569</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="0">
+        <v>38568</v>
+      </c>
+      <c r="D13" s="1">
+        <v>38569</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="C14" s="0">
+        <v>38716</v>
+      </c>
+      <c r="D14" s="1">
+        <v>38717</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>17</v>
+        <v>37</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="0">
+        <v>38553</v>
+      </c>
+      <c r="D15" s="1">
+        <v>38555</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>21</v>
+        <v>40</v>
+      </c>
+      <c r="C16" s="0">
+        <v>38692</v>
+      </c>
+      <c r="D16" s="1">
+        <v>38695</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>16</v>
+        <v>40</v>
+      </c>
+      <c r="C17" s="0">
+        <v>38692</v>
+      </c>
+      <c r="D17" s="1">
+        <v>38695</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="C18" s="0">
+        <v>38692</v>
+      </c>
+      <c r="D18" s="1">
+        <v>38695</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="C19" s="0">
+        <v>38692</v>
+      </c>
+      <c r="D19" s="1">
+        <v>38695</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>24</v>
+        <v>40</v>
+      </c>
+      <c r="C20" s="0">
+        <v>38692</v>
+      </c>
+      <c r="D20" s="1">
+        <v>38695</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>17</v>
+        <v>39</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="0">
+        <v>38692</v>
+      </c>
+      <c r="D21" s="1">
+        <v>38695</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>7</v>
+        <v>48</v>
+      </c>
+      <c r="C22" s="0">
+        <v>38709</v>
+      </c>
+      <c r="D22" s="1">
+        <v>38712</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>16</v>
+        <v>49</v>
+      </c>
+      <c r="C23" s="0">
+        <v>38556</v>
+      </c>
+      <c r="D23" s="1">
+        <v>38556</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>26</v>
+        <v>50</v>
+      </c>
+      <c r="C24" s="0">
+        <v>38685</v>
+      </c>
+      <c r="D24" s="1">
+        <v>38686</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/RegistroVisitantes/RegistroVisitantes/Reporte.xlsx
+++ b/RegistroVisitantes/RegistroVisitantes/Reporte.xlsx
@@ -322,7 +322,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -384,8 +384,8 @@
     <col min="1" max="1" width="9.48604801722935" customWidth="1"/>
     <col min="2" max="2" width="9.96484266008649" customWidth="1"/>
     <col min="3" max="3" width="11.2518583025251" customWidth="1"/>
-    <col min="4" max="4" width="14.712888445173" customWidth="1" style="1"/>
-    <col min="5" max="5" width="14.712888445173" customWidth="1" style="1"/>
+    <col min="4" max="4" width="13.0831451416016" customWidth="1" style="1"/>
+    <col min="5" max="5" width="11.2978962489537" customWidth="1" style="1"/>
     <col min="6" max="6" width="12.513298034668" customWidth="1"/>
     <col min="7" max="7" width="18.889041355678" customWidth="1"/>
     <col min="8" max="8" width="20.9801853724888" customWidth="1"/>

--- a/RegistroVisitantes/RegistroVisitantes/Reporte.xlsx
+++ b/RegistroVisitantes/RegistroVisitantes/Reporte.xlsx
@@ -12,36 +12,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>Fecha entrada</t>
+  </si>
+  <si>
+    <t>Fecha salida</t>
+  </si>
+  <si>
+    <t>Tipo visitante</t>
+  </si>
+  <si>
+    <t>Nacionalidad</t>
+  </si>
+  <si>
+    <t>Nombre completo</t>
+  </si>
   <si>
     <t>Correo electrónico</t>
   </si>
   <si>
+    <t>COSTA RICAN</t>
+  </si>
+  <si>
+    <t>Jeffry Venegas</t>
+  </si>
+  <si>
     <t>jeffvene@gmail.com</t>
   </si>
   <si>
+    <t>BELGIAN</t>
+  </si>
+  <si>
+    <t>Diego Dierick</t>
+  </si>
+  <si>
     <t>ddierick@fiu.edu</t>
   </si>
   <si>
+    <t>David Solano</t>
+  </si>
+  <si>
     <t>david@gmail.com</t>
   </si>
   <si>
+    <t>Stephen Curry Curry</t>
+  </si>
+  <si>
+    <t>BRITISH</t>
+  </si>
+  <si>
+    <t>Daniel Munoz</t>
+  </si>
+  <si>
     <t>daniel@gmail.com</t>
   </si>
   <si>
+    <t>SWEDISH</t>
+  </si>
+  <si>
+    <t>Zlatan Ibrahimovic</t>
+  </si>
+  <si>
+    <t>Gerard Pique</t>
+  </si>
+  <si>
     <t>pique@barcelona.com</t>
   </si>
   <si>
+    <t>GERMANS</t>
+  </si>
+  <si>
+    <t>Jerome Boateng</t>
+  </si>
+  <si>
+    <t>Rebeca Fallas</t>
+  </si>
+  <si>
     <t>ange@gmail.com</t>
   </si>
   <si>
+    <t>Michael Ballack</t>
+  </si>
+  <si>
+    <t>Roberto Carlos</t>
+  </si>
+  <si>
     <t>rc23@gmail.com</t>
   </si>
   <si>
+    <t>Investigador</t>
+  </si>
+  <si>
+    <t>UNITED STATES</t>
+  </si>
+  <si>
+    <t>Joanna Larson</t>
+  </si>
+  <si>
     <t>jglarson@umich.edu</t>
   </si>
   <si>
+    <t>Angelica Fallas</t>
+  </si>
+  <si>
+    <t>Glen Collier</t>
+  </si>
+  <si>
     <t>glen-collier@utulsa.edu</t>
+  </si>
+  <si>
+    <t>v v</t>
   </si>
   <si>
     <t>v</t>
@@ -52,7 +133,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -111,12 +192,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.0262233189174" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1" style="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.0831451416016" customWidth="1"/>
+    <col min="2" max="2" width="11.2978962489537" customWidth="1"/>
+    <col min="3" max="3" width="12.513298034668" customWidth="1" style="1"/>
+    <col min="4" max="4" width="13.9486585344587" customWidth="1" style="1"/>
+    <col min="5" max="5" width="17.9682824271066" customWidth="1"/>
+    <col min="6" max="6" width="21.0262233189174" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="9.140625" customWidth="1"/>
@@ -126,98 +207,384 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
+      <c r="A2" s="0">
+        <v>38431</v>
+      </c>
+      <c r="B2" s="0">
+        <v>38434</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
+      <c r="A3" s="0">
+        <v>38431</v>
+      </c>
+      <c r="B3" s="0">
+        <v>38434</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
+      <c r="A4" s="0">
+        <v>38447</v>
+      </c>
+      <c r="B4" s="0">
+        <v>38450</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>1</v>
+      <c r="A5" s="0">
+        <v>38510</v>
+      </c>
+      <c r="B5" s="0">
+        <v>38575</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>3</v>
+      <c r="A6" s="0">
+        <v>38568</v>
+      </c>
+      <c r="B6" s="0">
+        <v>38569</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>38568</v>
+      </c>
+      <c r="B7" s="0">
+        <v>38569</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>4</v>
+      <c r="A8" s="0">
+        <v>38568</v>
+      </c>
+      <c r="B8" s="0">
+        <v>38569</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>38568</v>
+      </c>
+      <c r="B9" s="0">
+        <v>38569</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>5</v>
+      <c r="A10" s="0">
+        <v>38568</v>
+      </c>
+      <c r="B10" s="0">
+        <v>38569</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>38568</v>
+      </c>
+      <c r="B11" s="0">
+        <v>38569</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>6</v>
+      <c r="A12" s="0">
+        <v>38568</v>
+      </c>
+      <c r="B12" s="0">
+        <v>38569</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>38568</v>
+      </c>
+      <c r="B13" s="0">
+        <v>38569</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>7</v>
+      <c r="A14" s="0">
+        <v>38716</v>
+      </c>
+      <c r="B14" s="0">
+        <v>38717</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>38553</v>
+      </c>
+      <c r="B15" s="0">
+        <v>38555</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>8</v>
+      <c r="A16" s="0">
+        <v>38692</v>
+      </c>
+      <c r="B16" s="0">
+        <v>38695</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>6</v>
+      <c r="A17" s="0">
+        <v>38692</v>
+      </c>
+      <c r="B17" s="0">
+        <v>38695</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>4</v>
+      <c r="A18" s="0">
+        <v>38692</v>
+      </c>
+      <c r="B18" s="0">
+        <v>38695</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>3</v>
+      <c r="A19" s="0">
+        <v>38692</v>
+      </c>
+      <c r="B19" s="0">
+        <v>38695</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>9</v>
+      <c r="A20" s="0">
+        <v>38692</v>
+      </c>
+      <c r="B20" s="0">
+        <v>38695</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>38692</v>
+      </c>
+      <c r="B21" s="0">
+        <v>38695</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>3</v>
+      <c r="A22" s="0">
+        <v>38709</v>
+      </c>
+      <c r="B22" s="0">
+        <v>38712</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="0" t="s">
-        <v>6</v>
+      <c r="A23" s="0">
+        <v>38556</v>
+      </c>
+      <c r="B23" s="0">
+        <v>38556</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="0" t="s">
-        <v>10</v>
+      <c r="A24" s="0">
+        <v>38685</v>
+      </c>
+      <c r="B24" s="0">
+        <v>38686</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/RegistroVisitantes/RegistroVisitantes/Reporte.xlsx
+++ b/RegistroVisitantes/RegistroVisitantes/Reporte.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+  <si>
+    <t>Estación</t>
+  </si>
   <si>
     <t>Reservación</t>
   </si>
@@ -23,27 +26,42 @@
     <t>Fecha salida</t>
   </si>
   <si>
+    <t>Tipo visitante</t>
+  </si>
+  <si>
+    <t>Nacionalidad</t>
+  </si>
+  <si>
     <t>Nombre completo</t>
   </si>
   <si>
     <t>Correo electrónico</t>
   </si>
   <si>
+    <t>La Selva</t>
+  </si>
+  <si>
     <t>CRO141</t>
   </si>
   <si>
+    <t>BELGIAN</t>
+  </si>
+  <si>
+    <t>Diego Dierick</t>
+  </si>
+  <si>
+    <t>ddierick@fiu.edu</t>
+  </si>
+  <si>
+    <t>COSTA RICAN</t>
+  </si>
+  <si>
     <t>Jeffry Venegas</t>
   </si>
   <si>
     <t>jeffvene@gmail.com</t>
   </si>
   <si>
-    <t>Diego Dierick</t>
-  </si>
-  <si>
-    <t>ddierick@fiu.edu</t>
-  </si>
-  <si>
     <t>CRO150</t>
   </si>
   <si>
@@ -59,33 +77,48 @@
     <t>CRO169</t>
   </si>
   <si>
+    <t>GERMANS</t>
+  </si>
+  <si>
+    <t>Jerome Boateng</t>
+  </si>
+  <si>
     <t>Stephen Curry Curry</t>
   </si>
   <si>
+    <t>BRITISH</t>
+  </si>
+  <si>
     <t>Daniel Munoz</t>
   </si>
   <si>
     <t>daniel@gmail.com</t>
   </si>
   <si>
+    <t>SWEDISH</t>
+  </si>
+  <si>
     <t>Zlatan Ibrahimovic</t>
   </si>
   <si>
+    <t>Rebeca Fallas</t>
+  </si>
+  <si>
+    <t>ange@gmail.com</t>
+  </si>
+  <si>
+    <t>COCOS ISLANDERS</t>
+  </si>
+  <si>
+    <t>Arturo Vidal</t>
+  </si>
+  <si>
     <t>Gerard Pique</t>
   </si>
   <si>
     <t>pique@barcelona.com</t>
   </si>
   <si>
-    <t>Jerome Boateng</t>
-  </si>
-  <si>
-    <t>Rebeca Fallas</t>
-  </si>
-  <si>
-    <t>ange@gmail.com</t>
-  </si>
-  <si>
     <t>Michael Ballack</t>
   </si>
   <si>
@@ -98,12 +131,24 @@
     <t>rc23@gmail.com</t>
   </si>
   <si>
+    <t>Las Cruces</t>
+  </si>
+  <si>
     <t>CRO289</t>
   </si>
   <si>
+    <t>Palo Verde</t>
+  </si>
+  <si>
     <t>CRO3658</t>
   </si>
   <si>
+    <t>Investigador</t>
+  </si>
+  <si>
+    <t>UNITED STATES</t>
+  </si>
+  <si>
     <t>Joanna Larson</t>
   </si>
   <si>
@@ -143,25 +188,13 @@
     <t>Número de visitantes</t>
   </si>
   <si>
-    <t>Estación</t>
-  </si>
-  <si>
     <t>OET</t>
   </si>
   <si>
-    <t>La Selva</t>
-  </si>
-  <si>
     <t>ESINTRO</t>
   </si>
   <si>
-    <t>Palo Verde</t>
-  </si>
-  <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Las Cruces</t>
   </si>
   <si>
     <t>Central</t>
@@ -225,512 +258,670 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.2518583025251" customWidth="1"/>
-    <col min="2" max="2" width="22.9690246582031" customWidth="1" style="1"/>
+    <col min="1" max="1" width="9.96484266008649" customWidth="1"/>
+    <col min="2" max="2" width="22.9690246582031" customWidth="1"/>
     <col min="3" max="3" width="19.3340737479074" customWidth="1" style="1"/>
-    <col min="4" max="4" width="17.9682824271066" customWidth="1"/>
-    <col min="5" max="5" width="21.0262233189174" customWidth="1"/>
-    <col min="6" max="6" width="9.96484266008649" customWidth="1"/>
+    <col min="4" max="4" width="11.2978962489537" customWidth="1" style="1"/>
+    <col min="5" max="5" width="12.513298034668" customWidth="1"/>
+    <col min="6" max="6" width="16.5083683558873" customWidth="1"/>
     <col min="7" max="7" width="22.9690246582031" customWidth="1"/>
-    <col min="8" max="8" width="19.3340737479074" customWidth="1"/>
+    <col min="8" max="8" width="21.0262233189174" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1">
         <v>38431</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>38434</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>7</v>
+      <c r="F2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
         <v>38431</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>38434</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>9</v>
+      <c r="F3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
         <v>38447</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>38450</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>12</v>
+      <c r="F4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1">
+        <v>38510</v>
+      </c>
+      <c r="D5" s="1">
+        <v>38575</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1">
-        <v>38510</v>
-      </c>
-      <c r="C5" s="1">
-        <v>38575</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>7</v>
+      <c r="G5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
         <v>38568</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>38569</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>12</v>
+      <c r="F6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
         <v>38568</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>38569</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>15</v>
+      <c r="G7" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1">
         <v>38568</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>38569</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>17</v>
+      <c r="F8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1">
         <v>38568</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>38569</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>18</v>
+      <c r="F9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
         <v>38568</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>38569</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>20</v>
+      <c r="G10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1">
         <v>38568</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>38569</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>21</v>
+      <c r="F11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
         <v>38568</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>38569</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>23</v>
+      <c r="F12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1">
         <v>38568</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>38569</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>24</v>
+      <c r="F13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1">
-        <v>38716</v>
+        <v>8</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="C14" s="1">
-        <v>38717</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>27</v>
+        <v>38568</v>
+      </c>
+      <c r="D14" s="1">
+        <v>38569</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1">
-        <v>38553</v>
+        <v>8</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="C15" s="1">
-        <v>38555</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
+        <v>38716</v>
+      </c>
+      <c r="D15" s="1">
+        <v>38717</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1">
-        <v>38692</v>
+        <v>39</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="C16" s="1">
-        <v>38695</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>31</v>
+        <v>38553</v>
+      </c>
+      <c r="D16" s="1">
+        <v>38555</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="1">
+        <v>41</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1">
         <v>38692</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>38695</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>23</v>
+      <c r="F17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="1">
+        <v>41</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1">
         <v>38692</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>38695</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="E18" s="0" t="s">
-        <v>17</v>
+        <v>43</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="1">
+        <v>41</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1">
         <v>38692</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>38695</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>12</v>
+      <c r="F19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="1">
+        <v>41</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1">
         <v>38692</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>38695</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="E20" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="1">
+        <v>41</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="1">
         <v>38692</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>38695</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="F21" s="0" t="s">
         <v>24</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1">
+        <v>38692</v>
+      </c>
+      <c r="D22" s="1">
+        <v>38695</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="B22" s="1">
-        <v>38709</v>
-      </c>
-      <c r="C22" s="1">
-        <v>38712</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="1">
-        <v>38556</v>
+        <v>39</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>50</v>
       </c>
       <c r="C23" s="1">
-        <v>38556</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>23</v>
+        <v>38709</v>
+      </c>
+      <c r="D23" s="1">
+        <v>38712</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="1">
+        <v>8</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1">
+        <v>38556</v>
+      </c>
+      <c r="D24" s="1">
+        <v>38556</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="1">
         <v>38685</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D25" s="1">
         <v>38686</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>42</v>
+      <c r="G25" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="1">
-        <v>6</v>
-      </c>
-      <c r="C27" s="1">
-        <v>11</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="0">
-        <v>6</v>
-      </c>
-      <c r="H27" s="0">
-        <v>14</v>
+      <c r="A27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="1">
-        <v>4</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="0">
+        <v>6</v>
       </c>
       <c r="C28" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="G28" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H28" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="1">
-        <v>10</v>
+        <v>59</v>
+      </c>
+      <c r="B29" s="0">
+        <v>4</v>
       </c>
       <c r="C29" s="1">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G29" s="0">
         <v>2</v>
       </c>
       <c r="H29" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="0">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
+        <v>24</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="0">
         <v>2</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="F30" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="0">
-        <v>0</v>
-      </c>
       <c r="H30" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="F31" s="0" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G31" s="0">
+        <v>0</v>
+      </c>
+      <c r="H31" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="F32" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="0">
         <v>10</v>
       </c>
-      <c r="H31" s="0">
-        <v>23</v>
+      <c r="H32" s="0">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
